--- a/scoresheets_clean/FSSM.xlsx
+++ b/scoresheets_clean/FSSM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumb/Dropbox/Wisconsin/EMBARK Lab/Code/BAM-data-cleaning/scoresheets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumb/Desktop/BAM-data-cleaning/scoresheets_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4FC1EC-0D1F-0D40-8328-45CF0CC20103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1593B4AF-3C94-284B-B247-59D35C381BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30000" windowHeight="20400" xr2:uid="{47A0C8A2-B045-4C71-8F46-677B871F1309}"/>
+    <workbookView xWindow="29840" yWindow="6300" windowWidth="30000" windowHeight="20400" xr2:uid="{47A0C8A2-B045-4C71-8F46-677B871F1309}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="79">
   <si>
     <t>raw_vars</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>fssm_average_freq</t>
+  </si>
+  <si>
+    <t>redcap_event_name</t>
+  </si>
+  <si>
+    <t>timepoint</t>
   </si>
 </sst>
 </file>
@@ -631,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1922DC1B-B1B3-4143-927A-2E75CBE7361F}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -715,13 +721,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -730,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -750,13 +753,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -785,13 +788,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -820,13 +823,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -855,13 +858,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -890,13 +893,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -925,13 +928,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -940,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -960,13 +963,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -975,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -995,13 +998,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1010,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -1030,13 +1033,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1045,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1065,13 +1068,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1080,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -1100,13 +1103,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1115,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -1135,13 +1138,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1150,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -1170,13 +1173,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1185,75 +1188,75 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
-        <f>_xlfn.TEXTJOIN(",", TRUE,A2:A16)</f>
-        <v>record_id,fi_runout,fi_access,fi_last_money,fi_last_access,fi_balance_money,fi_balance_access,fi_cut_meal_money,fi_cut_frequency,fi_cut_meal_access,fi_cut_frequency_access,fi_eat_less_money,fi_less_frequency_money,fi_eat_less_access,fi_less_frequency_access</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>_xlfn.TEXTJOIN(",", TRUE,A2:A17)</f>
+        <v>record_id,redcap_event_name,fi_runout,fi_access,fi_last_money,fi_last_access,fi_balance_money,fi_balance_access,fi_cut_meal_money,fi_cut_frequency,fi_cut_meal_access,fi_cut_frequency_access,fi_eat_less_money,fi_less_frequency_money,fi_eat_less_access,fi_less_frequency_access</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1276,25 +1279,25 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -1311,25 +1314,25 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -1346,13 +1349,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
@@ -1381,13 +1384,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>46</v>
@@ -1416,13 +1419,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
@@ -1451,13 +1454,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
@@ -1486,25 +1489,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
@@ -1521,13 +1524,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
@@ -1536,10 +1539,10 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
@@ -1556,13 +1559,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
         <v>45</v>
@@ -1591,10 +1594,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
@@ -1626,13 +1629,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
         <v>45</v>
@@ -1661,10 +1664,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1696,13 +1699,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
         <v>45</v>
@@ -1731,10 +1734,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -1765,24 +1768,23 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,B18:B32)</f>
-        <v>id,fssm_1_runout,fssm_2_access,fssm_3_last_money,fssm_4_last_access,fssm_5_balance_money,fssm_6_balance_access,fssm_7_cut_meal_money,fssm_7b_cut_frequency,fssm_8_cut_meal_access,fssm_8b_cut_freq_access,fssm_9_eat_less_money,fssm_9b_less_freq_money,fssm_10_eat_less_access,fssm_10b_less_freq_access</v>
+      <c r="A33" t="s">
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -1801,27 +1803,26 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,B19:B25, B27, B29, B31)</f>
-        <v>fssm_1_runout,fssm_2_access,fssm_3_last_money,fssm_4_last_access,fssm_5_balance_money,fssm_6_balance_access,fssm_7_cut_meal_money,fssm_8_cut_meal_access,fssm_9_eat_less_money,fssm_10_eat_less_access</v>
+      <c r="A34" t="s">
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
@@ -1838,72 +1839,144 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,B26,B28,B30,B32)</f>
+        <f>_xlfn.TEXTJOIN(",",TRUE,B19:B34)</f>
+        <v>id,timepoint,fssm_1_runout,fssm_2_access,fssm_3_last_money,fssm_4_last_access,fssm_5_balance_money,fssm_6_balance_access,fssm_7_cut_meal_money,fssm_7b_cut_frequency,fssm_8_cut_meal_access,fssm_8b_cut_freq_access,fssm_9_eat_less_money,fssm_9b_less_freq_money,fssm_10_eat_less_access,fssm_10b_less_freq_access</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,B21:B27, B29, B31, B33)</f>
+        <v>fssm_1_runout,fssm_2_access,fssm_3_last_money,fssm_4_last_access,fssm_5_balance_money,fssm_6_balance_access,fssm_7_cut_meal_money,fssm_8_cut_meal_access,fssm_9_eat_less_money,fssm_10_eat_less_access</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,B28,B30,B32,B34)</f>
         <v>fssm_7b_cut_frequency,fssm_8b_cut_freq_access,fssm_9b_less_freq_money,fssm_10b_less_freq_access</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
         <v>51</v>
       </c>
-      <c r="E35">
+      <c r="E37">
         <v>4</v>
       </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>67</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>68</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>54</v>
       </c>
-      <c r="E36">
+      <c r="E38">
         <v>5</v>
       </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
         <v>69</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I38" t="s">
         <v>70</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J38" t="s">
         <v>71</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K38" t="s">
         <v>12</v>
       </c>
     </row>
